--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ellamiller/Desktop/Towson/Fall 2020/COSC 412/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91342CC-77E3-A24B-998E-2D1B473CB7CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47BAC8DD-806F-8A45-B48A-3159525F6F1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Task Timeline" sheetId="1" r:id="rId1"/>
@@ -380,7 +380,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="442">
+  <fonts count="442" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5925,6 +5925,511 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="441" fillId="374" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="375" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="335" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="398" fillId="338" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="399" fillId="339" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="400" fillId="340" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="401" fillId="341" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="402" fillId="342" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="403" fillId="343" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="404" fillId="344" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="405" fillId="345" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="406" fillId="346" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="407" fillId="347" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="408" fillId="348" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="409" fillId="349" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="413" fillId="351" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="414" fillId="352" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="415" fillId="353" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="416" fillId="354" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="417" fillId="355" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="418" fillId="356" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="419" fillId="357" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="420" fillId="358" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="421" fillId="359" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="422" fillId="360" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="423" fillId="361" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="424" fillId="362" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="428" fillId="364" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="429" fillId="365" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="430" fillId="366" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="431" fillId="367" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="432" fillId="368" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="433" fillId="369" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="434" fillId="370" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="435" fillId="371" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="373" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="336" fillId="291" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="337" fillId="292" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="338" fillId="293" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="339" fillId="294" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="343" fillId="296" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="344" fillId="297" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="345" fillId="298" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="346" fillId="299" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="347" fillId="300" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="348" fillId="301" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="349" fillId="302" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="350" fillId="303" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="351" fillId="304" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="352" fillId="305" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="353" fillId="306" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="357" fillId="308" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="358" fillId="309" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="359" fillId="310" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="360" fillId="311" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="361" fillId="312" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="362" fillId="313" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="363" fillId="314" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="364" fillId="315" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="368" fillId="317" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="369" fillId="318" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="370" fillId="319" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="371" fillId="320" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="372" fillId="321" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="373" fillId="322" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="374" fillId="323" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="375" fillId="324" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="379" fillId="326" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="380" fillId="327" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="381" fillId="328" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="382" fillId="329" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="383" fillId="330" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="384" fillId="331" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="385" fillId="332" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="386" fillId="333" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="270" fillId="238" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="271" fillId="239" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="272" fillId="240" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="273" fillId="241" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="274" fillId="242" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="275" fillId="243" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="276" fillId="244" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="277" fillId="245" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="278" fillId="246" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="247" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="280" fillId="248" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="284" fillId="250" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="285" fillId="251" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="252" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="287" fillId="253" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="288" fillId="254" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="255" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="290" fillId="256" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="291" fillId="257" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="292" fillId="258" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="259" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="294" fillId="260" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="295" fillId="261" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="299" fillId="263" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="300" fillId="264" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="301" fillId="265" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="302" fillId="266" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="303" fillId="267" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="304" fillId="268" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="305" fillId="269" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="306" fillId="270" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="307" fillId="271" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="308" fillId="272" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="309" fillId="273" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="310" fillId="274" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="276" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="322" fillId="279" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="323" fillId="280" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="324" fillId="281" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="325" fillId="282" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="326" fillId="283" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="327" fillId="284" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="328" fillId="285" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="329" fillId="286" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="330" fillId="287" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="331" fillId="288" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="332" fillId="289" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="191" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="192" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="193" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="194" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="195" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="196" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="197" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="198" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="199" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="200" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="201" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="203" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="204" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="205" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="206" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="207" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="208" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="209" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="210" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="211" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="212" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="213" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="214" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="216" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="240" fillId="217" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="218" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="242" fillId="219" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="220" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="222" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="225" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="226" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="227" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="258" fillId="228" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="259" fillId="229" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="260" fillId="230" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="231" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="232" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="263" fillId="233" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="234" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="265" fillId="235" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="236" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="144" fillId="138" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5983,593 +6488,88 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="166" fillId="158" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="178" fillId="163" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="179" fillId="164" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="180" fillId="165" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="181" fillId="166" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="182" fillId="167" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="183" fillId="168" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="184" fillId="169" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="185" fillId="170" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="186" fillId="171" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="187" fillId="172" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="188" fillId="173" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="189" fillId="174" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="190" fillId="175" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="191" fillId="176" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="192" fillId="177" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="196" fillId="179" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="197" fillId="180" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="198" fillId="181" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="199" fillId="182" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="200" fillId="183" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="201" fillId="184" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="202" fillId="185" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="203" fillId="186" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="204" fillId="187" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="205" fillId="188" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="206" fillId="189" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="210" fillId="191" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="211" fillId="192" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="212" fillId="193" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="213" fillId="194" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="214" fillId="195" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="215" fillId="196" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="216" fillId="197" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="217" fillId="198" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="218" fillId="199" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="219" fillId="200" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="220" fillId="201" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="224" fillId="203" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="225" fillId="204" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="226" fillId="205" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="227" fillId="206" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="228" fillId="207" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="229" fillId="208" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="230" fillId="209" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="231" fillId="210" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="232" fillId="211" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="233" fillId="212" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="234" fillId="213" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="235" fillId="214" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="239" fillId="216" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="240" fillId="217" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="241" fillId="218" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="242" fillId="219" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="243" fillId="220" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="255" fillId="225" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="256" fillId="226" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="257" fillId="227" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="258" fillId="228" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="259" fillId="229" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="260" fillId="230" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="261" fillId="231" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="262" fillId="232" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="263" fillId="233" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="264" fillId="234" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="265" fillId="235" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="266" fillId="236" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="270" fillId="238" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="271" fillId="239" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="272" fillId="240" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="273" fillId="241" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="274" fillId="242" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="275" fillId="243" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="276" fillId="244" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="277" fillId="245" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="278" fillId="246" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="279" fillId="247" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="280" fillId="248" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="284" fillId="250" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="285" fillId="251" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="286" fillId="252" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="287" fillId="253" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="288" fillId="254" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="289" fillId="255" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="290" fillId="256" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="291" fillId="257" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="292" fillId="258" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="293" fillId="259" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="294" fillId="260" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="295" fillId="261" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="299" fillId="263" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="300" fillId="264" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="301" fillId="265" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="302" fillId="266" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="303" fillId="267" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="304" fillId="268" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="305" fillId="269" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="306" fillId="270" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="307" fillId="271" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="308" fillId="272" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="309" fillId="273" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="310" fillId="274" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="322" fillId="279" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="323" fillId="280" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="324" fillId="281" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="325" fillId="282" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="326" fillId="283" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="327" fillId="284" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="328" fillId="285" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="329" fillId="286" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="330" fillId="287" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="331" fillId="288" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="332" fillId="289" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="336" fillId="291" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="337" fillId="292" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="338" fillId="293" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="339" fillId="294" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="343" fillId="296" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="344" fillId="297" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="345" fillId="298" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="346" fillId="299" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="347" fillId="300" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="348" fillId="301" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="349" fillId="302" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="350" fillId="303" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="351" fillId="304" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="352" fillId="305" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="353" fillId="306" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="357" fillId="308" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="358" fillId="309" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="359" fillId="310" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="360" fillId="311" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="361" fillId="312" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="362" fillId="313" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="363" fillId="314" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="364" fillId="315" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="368" fillId="317" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="369" fillId="318" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="370" fillId="319" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="371" fillId="320" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="372" fillId="321" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="373" fillId="322" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="374" fillId="323" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="375" fillId="324" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="379" fillId="326" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="380" fillId="327" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="381" fillId="328" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="382" fillId="329" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="383" fillId="330" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="384" fillId="331" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="385" fillId="332" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="386" fillId="333" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="398" fillId="338" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="399" fillId="339" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="400" fillId="340" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="401" fillId="341" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="402" fillId="342" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="403" fillId="343" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="404" fillId="344" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="405" fillId="345" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="406" fillId="346" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="407" fillId="347" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="408" fillId="348" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="409" fillId="349" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="413" fillId="351" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="414" fillId="352" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="415" fillId="353" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="416" fillId="354" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="417" fillId="355" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="418" fillId="356" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="419" fillId="357" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="420" fillId="358" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="421" fillId="359" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="422" fillId="360" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="423" fillId="361" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="424" fillId="362" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="428" fillId="364" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="429" fillId="365" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="430" fillId="366" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="431" fillId="367" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="432" fillId="368" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="433" fillId="369" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="434" fillId="370" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="435" fillId="371" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="160" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="222" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="276" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="335" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="373" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="375" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="178" fillId="163" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="164" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="165" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="166" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="167" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="168" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="169" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="170" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="171" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="172" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="173" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="174" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="175" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="176" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="177" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="179" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="180" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="181" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="182" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="183" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="184" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="185" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="186" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="187" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="188" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="189" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6590,354 +6590,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>70</xdr:col>
-      <xdr:colOff>400326</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>262282</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>70</xdr:col>
-      <xdr:colOff>773595</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>633895</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Diamond 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BB9494F-5552-9147-91A1-55276760CB77}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="59469130" y="5714999"/>
-          <a:ext cx="373269" cy="371613"/>
-        </a:xfrm>
-        <a:prstGeom prst="diamond">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>80</xdr:col>
-      <xdr:colOff>427934</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>593587</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>80</xdr:col>
-      <xdr:colOff>787399</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>924892</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Diamond 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4F96957-CA60-4945-9723-5495E8A18F03}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="67779347" y="8365435"/>
-          <a:ext cx="359465" cy="331305"/>
-        </a:xfrm>
-        <a:prstGeom prst="diamond">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>91</xdr:col>
-      <xdr:colOff>358913</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>372717</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>91</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>814457</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Diamond 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3F76BFB-E2DA-594C-9F1C-84825A8C451D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="76959239" y="10270434"/>
-          <a:ext cx="415787" cy="441740"/>
-        </a:xfrm>
-        <a:prstGeom prst="diamond">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>93</xdr:col>
-      <xdr:colOff>345108</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>358913</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>93</xdr:col>
-      <xdr:colOff>786295</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>813352</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Diamond 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B907391-F6D9-5D43-8CBA-A39FE27E2D9F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="78601956" y="11333370"/>
-          <a:ext cx="441187" cy="454439"/>
-        </a:xfrm>
-        <a:prstGeom prst="diamond">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>544996</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>317500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>735496</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>508000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Diamond 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A0763E8-CFB7-C746-9AFD-7E0A6BE8A6C1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="30624670" y="3865217"/>
-          <a:ext cx="190500" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="diamond">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>570395</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>328543</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>760895</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>522908</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Diamond 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CEC1828-9193-C34D-BC8F-12C1BD5C25E5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="19675612" y="1764195"/>
-          <a:ext cx="190500" cy="194365"/>
-        </a:xfrm>
-        <a:prstGeom prst="diamond">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -8178,6 +7830,354 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>72572</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>181429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>326572</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>18143</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Diamond 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EF8A3B9-C437-6246-BEB1-5D6BF6B03035}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20973143" y="1369786"/>
+          <a:ext cx="254000" cy="235857"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>63501</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>326572</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>18143</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Diamond 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3E2DE32-58A7-5C42-BCF6-95E66F9FFA66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31695572" y="2748643"/>
+          <a:ext cx="263071" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>72573</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>172357</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>353787</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>36286</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Diamond 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD801A04-D117-3147-901C-87E41EB15849}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="60597144" y="3955143"/>
+          <a:ext cx="281214" cy="263072"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>108856</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>408214</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>18143</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Diamond 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2745C24-9494-6C4A-B533-0E70C11C0BB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="69024499" y="5542643"/>
+          <a:ext cx="299358" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>93</xdr:col>
+      <xdr:colOff>54429</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>93</xdr:col>
+      <xdr:colOff>353786</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>36286</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Diamond 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B294AD4-7947-FD40-9CD1-83A4FE6C5212}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="78050572" y="6540500"/>
+          <a:ext cx="299357" cy="272143"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>95</xdr:col>
+      <xdr:colOff>81642</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>154213</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>95</xdr:col>
+      <xdr:colOff>362856</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>36285</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Diamond 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D82E9F3-0CBD-9C44-A6FA-1FA42CF05DC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="79792285" y="6730999"/>
+          <a:ext cx="281214" cy="281215"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8505,11 +8505,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DV36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="42" workbookViewId="0">
-      <selection activeCell="CQ34" sqref="CQ34"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="140" workbookViewId="0">
+      <selection activeCell="CO33" sqref="CO33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="3" width="12" customWidth="1"/>
@@ -8519,7 +8519,7 @@
     <col min="95" max="95" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:126" ht="31">
+    <row r="1" spans="1:126" ht="31" x14ac:dyDescent="0.35">
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8527,387 +8527,387 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:126">
-      <c r="A2" s="436" t="s">
+    <row r="2" spans="1:126" x14ac:dyDescent="0.2">
+      <c r="A2" s="236" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="437" t="s">
+      <c r="B2" s="234" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="437" t="s">
+      <c r="C2" s="234" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="438" t="s">
+      <c r="E2" s="237" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="439" t="s">
+      <c r="F2" s="238" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="437" t="s">
+      <c r="G2" s="234" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="437" t="s">
+      <c r="H2" s="234" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="437" t="s">
+      <c r="I2" s="234" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="437" t="s">
+      <c r="J2" s="234" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="437" t="s">
+      <c r="K2" s="234" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="437" t="s">
+      <c r="L2" s="234" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="437" t="s">
+      <c r="M2" s="234" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="437" t="s">
+      <c r="N2" s="234" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="437" t="s">
+      <c r="O2" s="234" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="437" t="s">
+      <c r="P2" s="234" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="437" t="s">
+      <c r="Q2" s="234" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="437" t="s">
+      <c r="R2" s="234" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="437" t="s">
+      <c r="S2" s="234" t="s">
         <v>3</v>
       </c>
-      <c r="T2" s="437" t="s">
+      <c r="T2" s="234" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="437" t="s">
+      <c r="U2" s="234" t="s">
         <v>3</v>
       </c>
-      <c r="V2" s="437" t="s">
+      <c r="V2" s="234" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="437" t="s">
+      <c r="W2" s="234" t="s">
         <v>3</v>
       </c>
-      <c r="X2" s="437" t="s">
+      <c r="X2" s="234" t="s">
         <v>3</v>
       </c>
-      <c r="Y2" s="437" t="s">
+      <c r="Y2" s="234" t="s">
         <v>3</v>
       </c>
-      <c r="Z2" s="437" t="s">
+      <c r="Z2" s="234" t="s">
         <v>3</v>
       </c>
-      <c r="AA2" s="437" t="s">
+      <c r="AA2" s="234" t="s">
         <v>3</v>
       </c>
-      <c r="AB2" s="437" t="s">
+      <c r="AB2" s="234" t="s">
         <v>3</v>
       </c>
-      <c r="AC2" s="437" t="s">
+      <c r="AC2" s="234" t="s">
         <v>3</v>
       </c>
-      <c r="AD2" s="437" t="s">
+      <c r="AD2" s="234" t="s">
         <v>3</v>
       </c>
-      <c r="AE2" s="437" t="s">
+      <c r="AE2" s="234" t="s">
         <v>3</v>
       </c>
-      <c r="AF2" s="437" t="s">
+      <c r="AF2" s="234" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="437" t="s">
+      <c r="AG2" s="234" t="s">
         <v>3</v>
       </c>
-      <c r="AH2" s="437" t="s">
+      <c r="AH2" s="234" t="s">
         <v>3</v>
       </c>
-      <c r="AI2" s="437" t="s">
+      <c r="AI2" s="234" t="s">
         <v>3</v>
       </c>
-      <c r="AJ2" s="440" t="s">
+      <c r="AJ2" s="239" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="437" t="s">
+      <c r="AK2" s="234" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="437" t="s">
+      <c r="AL2" s="234" t="s">
         <v>4</v>
       </c>
-      <c r="AM2" s="437" t="s">
+      <c r="AM2" s="234" t="s">
         <v>4</v>
       </c>
-      <c r="AN2" s="437" t="s">
+      <c r="AN2" s="234" t="s">
         <v>4</v>
       </c>
-      <c r="AO2" s="437" t="s">
+      <c r="AO2" s="234" t="s">
         <v>4</v>
       </c>
-      <c r="AP2" s="437" t="s">
+      <c r="AP2" s="234" t="s">
         <v>4</v>
       </c>
-      <c r="AQ2" s="437" t="s">
+      <c r="AQ2" s="234" t="s">
         <v>4</v>
       </c>
-      <c r="AR2" s="437" t="s">
+      <c r="AR2" s="234" t="s">
         <v>4</v>
       </c>
-      <c r="AS2" s="437" t="s">
+      <c r="AS2" s="234" t="s">
         <v>4</v>
       </c>
-      <c r="AT2" s="437" t="s">
+      <c r="AT2" s="234" t="s">
         <v>4</v>
       </c>
-      <c r="AU2" s="437" t="s">
+      <c r="AU2" s="234" t="s">
         <v>4</v>
       </c>
-      <c r="AV2" s="437" t="s">
+      <c r="AV2" s="234" t="s">
         <v>4</v>
       </c>
-      <c r="AW2" s="437" t="s">
+      <c r="AW2" s="234" t="s">
         <v>4</v>
       </c>
-      <c r="AX2" s="437" t="s">
+      <c r="AX2" s="234" t="s">
         <v>4</v>
       </c>
-      <c r="AY2" s="437" t="s">
+      <c r="AY2" s="234" t="s">
         <v>4</v>
       </c>
-      <c r="AZ2" s="437" t="s">
+      <c r="AZ2" s="234" t="s">
         <v>4</v>
       </c>
-      <c r="BA2" s="437" t="s">
+      <c r="BA2" s="234" t="s">
         <v>4</v>
       </c>
-      <c r="BB2" s="437" t="s">
+      <c r="BB2" s="234" t="s">
         <v>4</v>
       </c>
-      <c r="BC2" s="437" t="s">
+      <c r="BC2" s="234" t="s">
         <v>4</v>
       </c>
-      <c r="BD2" s="437" t="s">
+      <c r="BD2" s="234" t="s">
         <v>4</v>
       </c>
-      <c r="BE2" s="437" t="s">
+      <c r="BE2" s="234" t="s">
         <v>4</v>
       </c>
-      <c r="BF2" s="437" t="s">
+      <c r="BF2" s="234" t="s">
         <v>4</v>
       </c>
-      <c r="BG2" s="437" t="s">
+      <c r="BG2" s="234" t="s">
         <v>4</v>
       </c>
-      <c r="BH2" s="437" t="s">
+      <c r="BH2" s="234" t="s">
         <v>4</v>
       </c>
-      <c r="BI2" s="437" t="s">
+      <c r="BI2" s="234" t="s">
         <v>4</v>
       </c>
-      <c r="BJ2" s="437" t="s">
+      <c r="BJ2" s="234" t="s">
         <v>4</v>
       </c>
-      <c r="BK2" s="437" t="s">
+      <c r="BK2" s="234" t="s">
         <v>4</v>
       </c>
-      <c r="BL2" s="437" t="s">
+      <c r="BL2" s="234" t="s">
         <v>4</v>
       </c>
-      <c r="BM2" s="437" t="s">
+      <c r="BM2" s="234" t="s">
         <v>4</v>
       </c>
-      <c r="BN2" s="437" t="s">
+      <c r="BN2" s="234" t="s">
         <v>4</v>
       </c>
-      <c r="BO2" s="441" t="s">
+      <c r="BO2" s="240" t="s">
         <v>5</v>
       </c>
-      <c r="BP2" s="437" t="s">
+      <c r="BP2" s="234" t="s">
         <v>5</v>
       </c>
-      <c r="BQ2" s="437" t="s">
+      <c r="BQ2" s="234" t="s">
         <v>5</v>
       </c>
-      <c r="BR2" s="437" t="s">
+      <c r="BR2" s="234" t="s">
         <v>5</v>
       </c>
-      <c r="BS2" s="437" t="s">
+      <c r="BS2" s="234" t="s">
         <v>5</v>
       </c>
-      <c r="BT2" s="437" t="s">
+      <c r="BT2" s="234" t="s">
         <v>5</v>
       </c>
-      <c r="BU2" s="437" t="s">
+      <c r="BU2" s="234" t="s">
         <v>5</v>
       </c>
-      <c r="BV2" s="437" t="s">
+      <c r="BV2" s="234" t="s">
         <v>5</v>
       </c>
-      <c r="BW2" s="437" t="s">
+      <c r="BW2" s="234" t="s">
         <v>5</v>
       </c>
-      <c r="BX2" s="437" t="s">
+      <c r="BX2" s="234" t="s">
         <v>5</v>
       </c>
-      <c r="BY2" s="437" t="s">
+      <c r="BY2" s="234" t="s">
         <v>5</v>
       </c>
-      <c r="BZ2" s="437" t="s">
+      <c r="BZ2" s="234" t="s">
         <v>5</v>
       </c>
-      <c r="CA2" s="437" t="s">
+      <c r="CA2" s="234" t="s">
         <v>5</v>
       </c>
-      <c r="CB2" s="437" t="s">
+      <c r="CB2" s="234" t="s">
         <v>5</v>
       </c>
-      <c r="CC2" s="437" t="s">
+      <c r="CC2" s="234" t="s">
         <v>5</v>
       </c>
-      <c r="CD2" s="437" t="s">
+      <c r="CD2" s="234" t="s">
         <v>5</v>
       </c>
-      <c r="CE2" s="437" t="s">
+      <c r="CE2" s="234" t="s">
         <v>5</v>
       </c>
-      <c r="CF2" s="437" t="s">
+      <c r="CF2" s="234" t="s">
         <v>5</v>
       </c>
-      <c r="CG2" s="437" t="s">
+      <c r="CG2" s="234" t="s">
         <v>5</v>
       </c>
-      <c r="CH2" s="437" t="s">
+      <c r="CH2" s="234" t="s">
         <v>5</v>
       </c>
-      <c r="CI2" s="437" t="s">
+      <c r="CI2" s="234" t="s">
         <v>5</v>
       </c>
-      <c r="CJ2" s="437" t="s">
+      <c r="CJ2" s="234" t="s">
         <v>5</v>
       </c>
-      <c r="CK2" s="437" t="s">
+      <c r="CK2" s="234" t="s">
         <v>5</v>
       </c>
-      <c r="CL2" s="437" t="s">
+      <c r="CL2" s="234" t="s">
         <v>5</v>
       </c>
-      <c r="CM2" s="437" t="s">
+      <c r="CM2" s="234" t="s">
         <v>5</v>
       </c>
-      <c r="CN2" s="437" t="s">
+      <c r="CN2" s="234" t="s">
         <v>5</v>
       </c>
-      <c r="CO2" s="437" t="s">
+      <c r="CO2" s="234" t="s">
         <v>5</v>
       </c>
-      <c r="CP2" s="437" t="s">
+      <c r="CP2" s="234" t="s">
         <v>5</v>
       </c>
-      <c r="CQ2" s="437" t="s">
+      <c r="CQ2" s="234" t="s">
         <v>5</v>
       </c>
-      <c r="CR2" s="437" t="s">
+      <c r="CR2" s="234" t="s">
         <v>5</v>
       </c>
-      <c r="CS2" s="442" t="s">
+      <c r="CS2" s="233" t="s">
         <v>6</v>
       </c>
-      <c r="CT2" s="437" t="s">
+      <c r="CT2" s="234" t="s">
         <v>6</v>
       </c>
-      <c r="CU2" s="437" t="s">
+      <c r="CU2" s="234" t="s">
         <v>6</v>
       </c>
-      <c r="CV2" s="437" t="s">
+      <c r="CV2" s="234" t="s">
         <v>6</v>
       </c>
-      <c r="CW2" s="437" t="s">
+      <c r="CW2" s="234" t="s">
         <v>6</v>
       </c>
-      <c r="CX2" s="437" t="s">
+      <c r="CX2" s="234" t="s">
         <v>6</v>
       </c>
-      <c r="CY2" s="437" t="s">
+      <c r="CY2" s="234" t="s">
         <v>6</v>
       </c>
-      <c r="CZ2" s="437" t="s">
+      <c r="CZ2" s="234" t="s">
         <v>6</v>
       </c>
-      <c r="DA2" s="437" t="s">
+      <c r="DA2" s="234" t="s">
         <v>6</v>
       </c>
-      <c r="DB2" s="437" t="s">
+      <c r="DB2" s="234" t="s">
         <v>6</v>
       </c>
-      <c r="DC2" s="437" t="s">
+      <c r="DC2" s="234" t="s">
         <v>6</v>
       </c>
-      <c r="DD2" s="437" t="s">
+      <c r="DD2" s="234" t="s">
         <v>6</v>
       </c>
-      <c r="DE2" s="437" t="s">
+      <c r="DE2" s="234" t="s">
         <v>6</v>
       </c>
-      <c r="DF2" s="437" t="s">
+      <c r="DF2" s="234" t="s">
         <v>6</v>
       </c>
-      <c r="DG2" s="437" t="s">
+      <c r="DG2" s="234" t="s">
         <v>6</v>
       </c>
-      <c r="DH2" s="437" t="s">
+      <c r="DH2" s="234" t="s">
         <v>6</v>
       </c>
-      <c r="DI2" s="437" t="s">
+      <c r="DI2" s="234" t="s">
         <v>6</v>
       </c>
-      <c r="DJ2" s="437" t="s">
+      <c r="DJ2" s="234" t="s">
         <v>6</v>
       </c>
-      <c r="DK2" s="437" t="s">
+      <c r="DK2" s="234" t="s">
         <v>6</v>
       </c>
-      <c r="DL2" s="437" t="s">
+      <c r="DL2" s="234" t="s">
         <v>6</v>
       </c>
-      <c r="DM2" s="437" t="s">
+      <c r="DM2" s="234" t="s">
         <v>6</v>
       </c>
-      <c r="DN2" s="437" t="s">
+      <c r="DN2" s="234" t="s">
         <v>6</v>
       </c>
-      <c r="DO2" s="437" t="s">
+      <c r="DO2" s="234" t="s">
         <v>6</v>
       </c>
-      <c r="DP2" s="437" t="s">
+      <c r="DP2" s="234" t="s">
         <v>6</v>
       </c>
-      <c r="DQ2" s="437" t="s">
+      <c r="DQ2" s="234" t="s">
         <v>6</v>
       </c>
-      <c r="DR2" s="437" t="s">
+      <c r="DR2" s="234" t="s">
         <v>6</v>
       </c>
-      <c r="DS2" s="437" t="s">
+      <c r="DS2" s="234" t="s">
         <v>6</v>
       </c>
-      <c r="DT2" s="437" t="s">
+      <c r="DT2" s="234" t="s">
         <v>6</v>
       </c>
-      <c r="DU2" s="437" t="s">
+      <c r="DU2" s="234" t="s">
         <v>6</v>
       </c>
-      <c r="DV2" s="437" t="s">
+      <c r="DV2" s="234" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:126">
+    <row r="3" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -9287,7 +9287,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:126">
+    <row r="4" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A4" s="130" t="s">
         <v>40</v>
       </c>
@@ -9304,7 +9304,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:126">
+    <row r="5" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -9317,29 +9317,29 @@
       <c r="D5" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="233" t="s">
+      <c r="E5" s="402" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="234" t="s">
+      <c r="F5" s="403" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="235" t="s">
+      <c r="G5" s="404" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="236" t="s">
+      <c r="H5" s="405" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="237" t="s">
+      <c r="I5" s="406" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="238" t="s">
+      <c r="J5" s="407" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="239" t="s">
+      <c r="K5" s="408" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:126">
+    <row r="6" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -9352,47 +9352,47 @@
       <c r="D6" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="L6" s="240" t="s">
+      <c r="L6" s="409" t="s">
         <v>48</v>
       </c>
-      <c r="M6" s="241" t="s">
+      <c r="M6" s="410" t="s">
         <v>48</v>
       </c>
-      <c r="N6" s="242" t="s">
+      <c r="N6" s="411" t="s">
         <v>48</v>
       </c>
-      <c r="O6" s="243" t="s">
+      <c r="O6" s="412" t="s">
         <v>48</v>
       </c>
-      <c r="P6" s="244" t="s">
+      <c r="P6" s="413" t="s">
         <v>48</v>
       </c>
-      <c r="Q6" s="245" t="s">
+      <c r="Q6" s="414" t="s">
         <v>48</v>
       </c>
-      <c r="R6" s="246" t="s">
+      <c r="R6" s="415" t="s">
         <v>48</v>
       </c>
-      <c r="S6" s="247" t="s">
+      <c r="S6" s="416" t="s">
         <v>48</v>
       </c>
-      <c r="T6" s="248" t="s">
+      <c r="T6" s="417" t="s">
         <v>48</v>
       </c>
-      <c r="U6" s="249" t="s">
+      <c r="U6" s="418" t="s">
         <v>48</v>
       </c>
-      <c r="V6" s="250" t="s">
+      <c r="V6" s="419" t="s">
         <v>48</v>
       </c>
-      <c r="W6" s="251" t="s">
+      <c r="W6" s="420" t="s">
         <v>48</v>
       </c>
-      <c r="X6" s="252" t="s">
+      <c r="X6" s="421" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:126" ht="68">
+    <row r="7" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -9405,11 +9405,11 @@
       <c r="D7" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="X7" s="443" t="s">
+      <c r="X7" s="422" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:126">
+    <row r="8" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A8" s="144" t="s">
         <v>50</v>
       </c>
@@ -9426,7 +9426,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:126">
+    <row r="9" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -9439,53 +9439,53 @@
       <c r="D9" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="L9" s="253" t="s">
+      <c r="L9" s="423" t="s">
         <v>53</v>
       </c>
-      <c r="M9" s="254" t="s">
+      <c r="M9" s="424" t="s">
         <v>53</v>
       </c>
-      <c r="N9" s="255" t="s">
+      <c r="N9" s="425" t="s">
         <v>53</v>
       </c>
-      <c r="O9" s="256" t="s">
+      <c r="O9" s="426" t="s">
         <v>53</v>
       </c>
-      <c r="P9" s="257" t="s">
+      <c r="P9" s="427" t="s">
         <v>53</v>
       </c>
-      <c r="Q9" s="258" t="s">
+      <c r="Q9" s="428" t="s">
         <v>53</v>
       </c>
-      <c r="R9" s="259" t="s">
+      <c r="R9" s="429" t="s">
         <v>53</v>
       </c>
-      <c r="S9" s="260" t="s">
+      <c r="S9" s="430" t="s">
         <v>53</v>
       </c>
-      <c r="T9" s="261" t="s">
+      <c r="T9" s="431" t="s">
         <v>53</v>
       </c>
-      <c r="U9" s="262" t="s">
+      <c r="U9" s="432" t="s">
         <v>53</v>
       </c>
-      <c r="V9" s="263" t="s">
+      <c r="V9" s="433" t="s">
         <v>53</v>
       </c>
-      <c r="W9" s="264" t="s">
+      <c r="W9" s="434" t="s">
         <v>53</v>
       </c>
-      <c r="X9" s="265" t="s">
+      <c r="X9" s="435" t="s">
         <v>53</v>
       </c>
-      <c r="Y9" s="266" t="s">
+      <c r="Y9" s="436" t="s">
         <v>53</v>
       </c>
-      <c r="Z9" s="267" t="s">
+      <c r="Z9" s="437" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:126">
+    <row r="10" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -9498,41 +9498,41 @@
       <c r="D10" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="T10" s="268" t="s">
+      <c r="T10" s="438" t="s">
         <v>57</v>
       </c>
-      <c r="U10" s="269" t="s">
+      <c r="U10" s="439" t="s">
         <v>57</v>
       </c>
-      <c r="V10" s="270" t="s">
+      <c r="V10" s="440" t="s">
         <v>57</v>
       </c>
-      <c r="W10" s="271" t="s">
+      <c r="W10" s="441" t="s">
         <v>57</v>
       </c>
-      <c r="X10" s="272" t="s">
+      <c r="X10" s="442" t="s">
         <v>57</v>
       </c>
-      <c r="Y10" s="273" t="s">
+      <c r="Y10" s="443" t="s">
         <v>57</v>
       </c>
-      <c r="Z10" s="274" t="s">
+      <c r="Z10" s="444" t="s">
         <v>57</v>
       </c>
-      <c r="AA10" s="275" t="s">
+      <c r="AA10" s="445" t="s">
         <v>57</v>
       </c>
-      <c r="AB10" s="276" t="s">
+      <c r="AB10" s="446" t="s">
         <v>57</v>
       </c>
-      <c r="AC10" s="277" t="s">
+      <c r="AC10" s="447" t="s">
         <v>57</v>
       </c>
-      <c r="AD10" s="278" t="s">
+      <c r="AD10" s="448" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:126">
+    <row r="11" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>58</v>
       </c>
@@ -9545,41 +9545,41 @@
       <c r="D11" s="157" t="s">
         <v>0</v>
       </c>
-      <c r="T11" s="279" t="s">
+      <c r="T11" s="361" t="s">
         <v>59</v>
       </c>
-      <c r="U11" s="280" t="s">
+      <c r="U11" s="362" t="s">
         <v>59</v>
       </c>
-      <c r="V11" s="281" t="s">
+      <c r="V11" s="363" t="s">
         <v>59</v>
       </c>
-      <c r="W11" s="282" t="s">
+      <c r="W11" s="364" t="s">
         <v>59</v>
       </c>
-      <c r="X11" s="283" t="s">
+      <c r="X11" s="365" t="s">
         <v>59</v>
       </c>
-      <c r="Y11" s="284" t="s">
+      <c r="Y11" s="366" t="s">
         <v>59</v>
       </c>
-      <c r="Z11" s="285" t="s">
+      <c r="Z11" s="367" t="s">
         <v>59</v>
       </c>
-      <c r="AA11" s="286" t="s">
+      <c r="AA11" s="368" t="s">
         <v>59</v>
       </c>
-      <c r="AB11" s="287" t="s">
+      <c r="AB11" s="369" t="s">
         <v>59</v>
       </c>
-      <c r="AC11" s="288" t="s">
+      <c r="AC11" s="370" t="s">
         <v>59</v>
       </c>
-      <c r="AD11" s="289" t="s">
+      <c r="AD11" s="371" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:126">
+    <row r="12" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>60</v>
       </c>
@@ -9592,44 +9592,44 @@
       <c r="D12" s="160" t="s">
         <v>0</v>
       </c>
-      <c r="Z12" s="290" t="s">
+      <c r="Z12" s="372" t="s">
         <v>62</v>
       </c>
-      <c r="AA12" s="291" t="s">
+      <c r="AA12" s="373" t="s">
         <v>62</v>
       </c>
-      <c r="AB12" s="292" t="s">
+      <c r="AB12" s="374" t="s">
         <v>62</v>
       </c>
-      <c r="AC12" s="293" t="s">
+      <c r="AC12" s="375" t="s">
         <v>62</v>
       </c>
-      <c r="AD12" s="294" t="s">
+      <c r="AD12" s="376" t="s">
         <v>62</v>
       </c>
-      <c r="AE12" s="295" t="s">
+      <c r="AE12" s="377" t="s">
         <v>62</v>
       </c>
-      <c r="AF12" s="296" t="s">
+      <c r="AF12" s="378" t="s">
         <v>62</v>
       </c>
-      <c r="AG12" s="297" t="s">
+      <c r="AG12" s="379" t="s">
         <v>62</v>
       </c>
-      <c r="AH12" s="298" t="s">
+      <c r="AH12" s="380" t="s">
         <v>62</v>
       </c>
-      <c r="AI12" s="299" t="s">
+      <c r="AI12" s="381" t="s">
         <v>62</v>
       </c>
-      <c r="AJ12" s="300" t="s">
+      <c r="AJ12" s="382" t="s">
         <v>62</v>
       </c>
-      <c r="AK12" s="301" t="s">
+      <c r="AK12" s="383" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:126">
+    <row r="13" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>63</v>
       </c>
@@ -9642,23 +9642,23 @@
       <c r="D13" s="163" t="s">
         <v>0</v>
       </c>
-      <c r="AG13" s="302" t="s">
+      <c r="AG13" s="384" t="s">
         <v>65</v>
       </c>
-      <c r="AH13" s="303" t="s">
+      <c r="AH13" s="385" t="s">
         <v>65</v>
       </c>
-      <c r="AI13" s="304" t="s">
+      <c r="AI13" s="386" t="s">
         <v>65</v>
       </c>
-      <c r="AJ13" s="305" t="s">
+      <c r="AJ13" s="387" t="s">
         <v>65</v>
       </c>
-      <c r="AK13" s="306" t="s">
+      <c r="AK13" s="388" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:126" ht="68">
+    <row r="14" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>66</v>
       </c>
@@ -9671,11 +9671,11 @@
       <c r="D14" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="AK14" s="444" t="s">
+      <c r="AK14" s="389" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:126">
+    <row r="15" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A15" s="167" t="s">
         <v>67</v>
       </c>
@@ -9692,7 +9692,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:126">
+    <row r="16" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>68</v>
       </c>
@@ -9705,44 +9705,44 @@
       <c r="D16" s="174" t="s">
         <v>0</v>
       </c>
-      <c r="AV16" s="307" t="s">
+      <c r="AV16" s="390" t="s">
         <v>71</v>
       </c>
-      <c r="AW16" s="308" t="s">
+      <c r="AW16" s="391" t="s">
         <v>71</v>
       </c>
-      <c r="AX16" s="309" t="s">
+      <c r="AX16" s="392" t="s">
         <v>71</v>
       </c>
-      <c r="AY16" s="310" t="s">
+      <c r="AY16" s="393" t="s">
         <v>71</v>
       </c>
-      <c r="AZ16" s="311" t="s">
+      <c r="AZ16" s="394" t="s">
         <v>71</v>
       </c>
-      <c r="BA16" s="312" t="s">
+      <c r="BA16" s="395" t="s">
         <v>71</v>
       </c>
-      <c r="BB16" s="313" t="s">
+      <c r="BB16" s="396" t="s">
         <v>71</v>
       </c>
-      <c r="BC16" s="314" t="s">
+      <c r="BC16" s="397" t="s">
         <v>71</v>
       </c>
-      <c r="BD16" s="315" t="s">
+      <c r="BD16" s="398" t="s">
         <v>71</v>
       </c>
-      <c r="BE16" s="316" t="s">
+      <c r="BE16" s="399" t="s">
         <v>71</v>
       </c>
-      <c r="BF16" s="317" t="s">
+      <c r="BF16" s="400" t="s">
         <v>71</v>
       </c>
-      <c r="BG16" s="318" t="s">
+      <c r="BG16" s="401" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:93">
+    <row r="17" spans="1:93" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>72</v>
       </c>
@@ -9755,41 +9755,41 @@
       <c r="D17" s="177" t="s">
         <v>0</v>
       </c>
-      <c r="BC17" s="319" t="s">
+      <c r="BC17" s="314" t="s">
         <v>75</v>
       </c>
-      <c r="BD17" s="320" t="s">
+      <c r="BD17" s="315" t="s">
         <v>75</v>
       </c>
-      <c r="BE17" s="321" t="s">
+      <c r="BE17" s="316" t="s">
         <v>75</v>
       </c>
-      <c r="BF17" s="322" t="s">
+      <c r="BF17" s="317" t="s">
         <v>75</v>
       </c>
-      <c r="BG17" s="323" t="s">
+      <c r="BG17" s="318" t="s">
         <v>75</v>
       </c>
-      <c r="BH17" s="324" t="s">
+      <c r="BH17" s="319" t="s">
         <v>75</v>
       </c>
-      <c r="BI17" s="325" t="s">
+      <c r="BI17" s="320" t="s">
         <v>75</v>
       </c>
-      <c r="BJ17" s="326" t="s">
+      <c r="BJ17" s="321" t="s">
         <v>75</v>
       </c>
-      <c r="BK17" s="327" t="s">
+      <c r="BK17" s="322" t="s">
         <v>75</v>
       </c>
-      <c r="BL17" s="328" t="s">
+      <c r="BL17" s="323" t="s">
         <v>75</v>
       </c>
-      <c r="BM17" s="329" t="s">
+      <c r="BM17" s="324" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:93">
+    <row r="18" spans="1:93" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>76</v>
       </c>
@@ -9802,44 +9802,44 @@
       <c r="D18" s="180" t="s">
         <v>0</v>
       </c>
-      <c r="BI18" s="330" t="s">
+      <c r="BI18" s="325" t="s">
         <v>79</v>
       </c>
-      <c r="BJ18" s="331" t="s">
+      <c r="BJ18" s="326" t="s">
         <v>79</v>
       </c>
-      <c r="BK18" s="332" t="s">
+      <c r="BK18" s="327" t="s">
         <v>79</v>
       </c>
-      <c r="BL18" s="333" t="s">
+      <c r="BL18" s="328" t="s">
         <v>79</v>
       </c>
-      <c r="BM18" s="334" t="s">
+      <c r="BM18" s="329" t="s">
         <v>79</v>
       </c>
-      <c r="BN18" s="335" t="s">
+      <c r="BN18" s="330" t="s">
         <v>79</v>
       </c>
-      <c r="BO18" s="336" t="s">
+      <c r="BO18" s="331" t="s">
         <v>79</v>
       </c>
-      <c r="BP18" s="337" t="s">
+      <c r="BP18" s="332" t="s">
         <v>79</v>
       </c>
-      <c r="BQ18" s="338" t="s">
+      <c r="BQ18" s="333" t="s">
         <v>79</v>
       </c>
-      <c r="BR18" s="339" t="s">
+      <c r="BR18" s="334" t="s">
         <v>79</v>
       </c>
-      <c r="BS18" s="340" t="s">
+      <c r="BS18" s="335" t="s">
         <v>79</v>
       </c>
-      <c r="BT18" s="341" t="s">
+      <c r="BT18" s="336" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:93">
+    <row r="19" spans="1:93" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>80</v>
       </c>
@@ -9852,44 +9852,44 @@
       <c r="D19" s="183" t="s">
         <v>0</v>
       </c>
-      <c r="BI19" s="342" t="s">
+      <c r="BI19" s="337" t="s">
         <v>81</v>
       </c>
-      <c r="BJ19" s="343" t="s">
+      <c r="BJ19" s="338" t="s">
         <v>81</v>
       </c>
-      <c r="BK19" s="344" t="s">
+      <c r="BK19" s="339" t="s">
         <v>81</v>
       </c>
-      <c r="BL19" s="345" t="s">
+      <c r="BL19" s="340" t="s">
         <v>81</v>
       </c>
-      <c r="BM19" s="346" t="s">
+      <c r="BM19" s="341" t="s">
         <v>81</v>
       </c>
-      <c r="BN19" s="347" t="s">
+      <c r="BN19" s="342" t="s">
         <v>81</v>
       </c>
-      <c r="BO19" s="348" t="s">
+      <c r="BO19" s="343" t="s">
         <v>81</v>
       </c>
-      <c r="BP19" s="349" t="s">
+      <c r="BP19" s="344" t="s">
         <v>81</v>
       </c>
-      <c r="BQ19" s="350" t="s">
+      <c r="BQ19" s="345" t="s">
         <v>81</v>
       </c>
-      <c r="BR19" s="351" t="s">
+      <c r="BR19" s="346" t="s">
         <v>81</v>
       </c>
-      <c r="BS19" s="352" t="s">
+      <c r="BS19" s="347" t="s">
         <v>81</v>
       </c>
-      <c r="BT19" s="353" t="s">
+      <c r="BT19" s="348" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:93" ht="68">
+    <row r="20" spans="1:93" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>82</v>
       </c>
@@ -9902,11 +9902,11 @@
       <c r="D20" s="186" t="s">
         <v>0</v>
       </c>
-      <c r="BT20" s="445" t="s">
+      <c r="BT20" s="349" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="21" spans="1:93">
+    <row r="21" spans="1:93" x14ac:dyDescent="0.2">
       <c r="A21" s="187" t="s">
         <v>83</v>
       </c>
@@ -9923,7 +9923,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:93">
+    <row r="22" spans="1:93" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>84</v>
       </c>
@@ -9936,41 +9936,41 @@
       <c r="D22" s="194" t="s">
         <v>0</v>
       </c>
-      <c r="BT22" s="354" t="s">
+      <c r="BT22" s="350" t="s">
         <v>86</v>
       </c>
-      <c r="BU22" s="355" t="s">
+      <c r="BU22" s="351" t="s">
         <v>86</v>
       </c>
-      <c r="BV22" s="356" t="s">
+      <c r="BV22" s="352" t="s">
         <v>86</v>
       </c>
-      <c r="BW22" s="357" t="s">
+      <c r="BW22" s="353" t="s">
         <v>86</v>
       </c>
-      <c r="BX22" s="358" t="s">
+      <c r="BX22" s="354" t="s">
         <v>86</v>
       </c>
-      <c r="BY22" s="359" t="s">
+      <c r="BY22" s="355" t="s">
         <v>86</v>
       </c>
-      <c r="BZ22" s="360" t="s">
+      <c r="BZ22" s="356" t="s">
         <v>86</v>
       </c>
-      <c r="CA22" s="361" t="s">
+      <c r="CA22" s="357" t="s">
         <v>86</v>
       </c>
-      <c r="CB22" s="362" t="s">
+      <c r="CB22" s="358" t="s">
         <v>86</v>
       </c>
-      <c r="CC22" s="363" t="s">
+      <c r="CC22" s="359" t="s">
         <v>86</v>
       </c>
-      <c r="CD22" s="364" t="s">
+      <c r="CD22" s="360" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:93">
+    <row r="23" spans="1:93" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>87</v>
       </c>
@@ -9983,20 +9983,20 @@
       <c r="D23" s="197" t="s">
         <v>0</v>
       </c>
-      <c r="BT23" s="365" t="s">
+      <c r="BT23" s="275" t="s">
         <v>89</v>
       </c>
-      <c r="BU23" s="366" t="s">
+      <c r="BU23" s="276" t="s">
         <v>89</v>
       </c>
-      <c r="BV23" s="367" t="s">
+      <c r="BV23" s="277" t="s">
         <v>89</v>
       </c>
-      <c r="BW23" s="368" t="s">
+      <c r="BW23" s="278" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:93">
+    <row r="24" spans="1:93" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>90</v>
       </c>
@@ -10009,41 +10009,41 @@
       <c r="D24" s="200" t="s">
         <v>0</v>
       </c>
-      <c r="BT24" s="369" t="s">
+      <c r="BT24" s="279" t="s">
         <v>91</v>
       </c>
-      <c r="BU24" s="370" t="s">
+      <c r="BU24" s="280" t="s">
         <v>91</v>
       </c>
-      <c r="BV24" s="371" t="s">
+      <c r="BV24" s="281" t="s">
         <v>91</v>
       </c>
-      <c r="BW24" s="372" t="s">
+      <c r="BW24" s="282" t="s">
         <v>91</v>
       </c>
-      <c r="BX24" s="373" t="s">
+      <c r="BX24" s="283" t="s">
         <v>91</v>
       </c>
-      <c r="BY24" s="374" t="s">
+      <c r="BY24" s="284" t="s">
         <v>91</v>
       </c>
-      <c r="BZ24" s="375" t="s">
+      <c r="BZ24" s="285" t="s">
         <v>91</v>
       </c>
-      <c r="CA24" s="376" t="s">
+      <c r="CA24" s="286" t="s">
         <v>91</v>
       </c>
-      <c r="CB24" s="377" t="s">
+      <c r="CB24" s="287" t="s">
         <v>91</v>
       </c>
-      <c r="CC24" s="378" t="s">
+      <c r="CC24" s="288" t="s">
         <v>91</v>
       </c>
-      <c r="CD24" s="379" t="s">
+      <c r="CD24" s="289" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:93">
+    <row r="25" spans="1:93" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>92</v>
       </c>
@@ -10056,32 +10056,32 @@
       <c r="D25" s="203" t="s">
         <v>0</v>
       </c>
-      <c r="BW25" s="380" t="s">
+      <c r="BW25" s="290" t="s">
         <v>93</v>
       </c>
-      <c r="BX25" s="381" t="s">
+      <c r="BX25" s="291" t="s">
         <v>93</v>
       </c>
-      <c r="BY25" s="382" t="s">
+      <c r="BY25" s="292" t="s">
         <v>93</v>
       </c>
-      <c r="BZ25" s="383" t="s">
+      <c r="BZ25" s="293" t="s">
         <v>93</v>
       </c>
-      <c r="CA25" s="384" t="s">
+      <c r="CA25" s="294" t="s">
         <v>93</v>
       </c>
-      <c r="CB25" s="385" t="s">
+      <c r="CB25" s="295" t="s">
         <v>93</v>
       </c>
-      <c r="CC25" s="386" t="s">
+      <c r="CC25" s="296" t="s">
         <v>93</v>
       </c>
-      <c r="CD25" s="387" t="s">
+      <c r="CD25" s="297" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:93">
+    <row r="26" spans="1:93" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>94</v>
       </c>
@@ -10094,32 +10094,32 @@
       <c r="D26" s="206" t="s">
         <v>0</v>
       </c>
-      <c r="BW26" s="388" t="s">
+      <c r="BW26" s="298" t="s">
         <v>95</v>
       </c>
-      <c r="BX26" s="389" t="s">
+      <c r="BX26" s="299" t="s">
         <v>95</v>
       </c>
-      <c r="BY26" s="390" t="s">
+      <c r="BY26" s="300" t="s">
         <v>95</v>
       </c>
-      <c r="BZ26" s="391" t="s">
+      <c r="BZ26" s="301" t="s">
         <v>95</v>
       </c>
-      <c r="CA26" s="392" t="s">
+      <c r="CA26" s="302" t="s">
         <v>95</v>
       </c>
-      <c r="CB26" s="393" t="s">
+      <c r="CB26" s="303" t="s">
         <v>95</v>
       </c>
-      <c r="CC26" s="394" t="s">
+      <c r="CC26" s="304" t="s">
         <v>95</v>
       </c>
-      <c r="CD26" s="395" t="s">
+      <c r="CD26" s="305" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:93">
+    <row r="27" spans="1:93" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>96</v>
       </c>
@@ -10132,32 +10132,32 @@
       <c r="D27" s="209" t="s">
         <v>0</v>
       </c>
-      <c r="BW27" s="396" t="s">
+      <c r="BW27" s="306" t="s">
         <v>97</v>
       </c>
-      <c r="BX27" s="397" t="s">
+      <c r="BX27" s="307" t="s">
         <v>97</v>
       </c>
-      <c r="BY27" s="398" t="s">
+      <c r="BY27" s="308" t="s">
         <v>97</v>
       </c>
-      <c r="BZ27" s="399" t="s">
+      <c r="BZ27" s="309" t="s">
         <v>97</v>
       </c>
-      <c r="CA27" s="400" t="s">
+      <c r="CA27" s="310" t="s">
         <v>97</v>
       </c>
-      <c r="CB27" s="401" t="s">
+      <c r="CB27" s="311" t="s">
         <v>97</v>
       </c>
-      <c r="CC27" s="402" t="s">
+      <c r="CC27" s="312" t="s">
         <v>97</v>
       </c>
-      <c r="CD27" s="403" t="s">
+      <c r="CD27" s="313" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="1:93" ht="102">
+    <row r="28" spans="1:93" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>98</v>
       </c>
@@ -10170,11 +10170,11 @@
       <c r="D28" s="212" t="s">
         <v>0</v>
       </c>
-      <c r="CD28" s="446" t="s">
+      <c r="CD28" s="241" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:93">
+    <row r="29" spans="1:93" x14ac:dyDescent="0.2">
       <c r="A29" s="213" t="s">
         <v>99</v>
       </c>
@@ -10191,7 +10191,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="1:93">
+    <row r="30" spans="1:93" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>100</v>
       </c>
@@ -10204,44 +10204,44 @@
       <c r="D30" s="220" t="s">
         <v>0</v>
       </c>
-      <c r="BW30" s="404" t="s">
+      <c r="BW30" s="242" t="s">
         <v>102</v>
       </c>
-      <c r="BX30" s="405" t="s">
+      <c r="BX30" s="243" t="s">
         <v>102</v>
       </c>
-      <c r="BY30" s="406" t="s">
+      <c r="BY30" s="244" t="s">
         <v>102</v>
       </c>
-      <c r="BZ30" s="407" t="s">
+      <c r="BZ30" s="245" t="s">
         <v>102</v>
       </c>
-      <c r="CA30" s="408" t="s">
+      <c r="CA30" s="246" t="s">
         <v>102</v>
       </c>
-      <c r="CB30" s="409" t="s">
+      <c r="CB30" s="247" t="s">
         <v>102</v>
       </c>
-      <c r="CC30" s="410" t="s">
+      <c r="CC30" s="248" t="s">
         <v>102</v>
       </c>
-      <c r="CD30" s="411" t="s">
+      <c r="CD30" s="249" t="s">
         <v>102</v>
       </c>
-      <c r="CE30" s="412" t="s">
+      <c r="CE30" s="250" t="s">
         <v>102</v>
       </c>
-      <c r="CF30" s="413" t="s">
+      <c r="CF30" s="251" t="s">
         <v>102</v>
       </c>
-      <c r="CG30" s="414" t="s">
+      <c r="CG30" s="252" t="s">
         <v>102</v>
       </c>
-      <c r="CH30" s="415" t="s">
+      <c r="CH30" s="253" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:93">
+    <row r="31" spans="1:93" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>103</v>
       </c>
@@ -10254,44 +10254,44 @@
       <c r="D31" s="223" t="s">
         <v>0</v>
       </c>
-      <c r="BW31" s="416" t="s">
+      <c r="BW31" s="254" t="s">
         <v>104</v>
       </c>
-      <c r="BX31" s="417" t="s">
+      <c r="BX31" s="255" t="s">
         <v>104</v>
       </c>
-      <c r="BY31" s="418" t="s">
+      <c r="BY31" s="256" t="s">
         <v>104</v>
       </c>
-      <c r="BZ31" s="419" t="s">
+      <c r="BZ31" s="257" t="s">
         <v>104</v>
       </c>
-      <c r="CA31" s="420" t="s">
+      <c r="CA31" s="258" t="s">
         <v>104</v>
       </c>
-      <c r="CB31" s="421" t="s">
+      <c r="CB31" s="259" t="s">
         <v>104</v>
       </c>
-      <c r="CC31" s="422" t="s">
+      <c r="CC31" s="260" t="s">
         <v>104</v>
       </c>
-      <c r="CD31" s="423" t="s">
+      <c r="CD31" s="261" t="s">
         <v>104</v>
       </c>
-      <c r="CE31" s="424" t="s">
+      <c r="CE31" s="262" t="s">
         <v>104</v>
       </c>
-      <c r="CF31" s="425" t="s">
+      <c r="CF31" s="263" t="s">
         <v>104</v>
       </c>
-      <c r="CG31" s="426" t="s">
+      <c r="CG31" s="264" t="s">
         <v>104</v>
       </c>
-      <c r="CH31" s="427" t="s">
+      <c r="CH31" s="265" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="1:93">
+    <row r="32" spans="1:93" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>105</v>
       </c>
@@ -10304,32 +10304,32 @@
       <c r="D32" s="226" t="s">
         <v>0</v>
       </c>
-      <c r="CH32" s="428" t="s">
+      <c r="CH32" s="266" t="s">
         <v>107</v>
       </c>
-      <c r="CI32" s="429" t="s">
+      <c r="CI32" s="267" t="s">
         <v>107</v>
       </c>
-      <c r="CJ32" s="430" t="s">
+      <c r="CJ32" s="268" t="s">
         <v>107</v>
       </c>
-      <c r="CK32" s="431" t="s">
+      <c r="CK32" s="269" t="s">
         <v>107</v>
       </c>
-      <c r="CL32" s="432" t="s">
+      <c r="CL32" s="270" t="s">
         <v>107</v>
       </c>
-      <c r="CM32" s="433" t="s">
+      <c r="CM32" s="271" t="s">
         <v>107</v>
       </c>
-      <c r="CN32" s="434" t="s">
+      <c r="CN32" s="272" t="s">
         <v>107</v>
       </c>
-      <c r="CO32" s="435" t="s">
+      <c r="CO32" s="273" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:95" ht="85">
+    <row r="33" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>108</v>
       </c>
@@ -10342,11 +10342,11 @@
       <c r="D33" s="229" t="s">
         <v>0</v>
       </c>
-      <c r="CO33" s="447" t="s">
+      <c r="CO33" s="274" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:95" ht="85">
+    <row r="34" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>109</v>
       </c>
@@ -10359,17 +10359,33 @@
       <c r="D34" s="232" t="s">
         <v>0</v>
       </c>
-      <c r="CQ34" s="448" t="s">
+      <c r="CQ34" s="235" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="36" spans="1:95">
+    <row r="36" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>111</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="E5:K5"/>
+    <mergeCell ref="L6:X6"/>
+    <mergeCell ref="X7"/>
+    <mergeCell ref="L9:Z9"/>
+    <mergeCell ref="T10:AD10"/>
+    <mergeCell ref="T11:AD11"/>
+    <mergeCell ref="Z12:AK12"/>
+    <mergeCell ref="AG13:AK13"/>
+    <mergeCell ref="AK14"/>
+    <mergeCell ref="AV16:BG16"/>
+    <mergeCell ref="BW27:CD27"/>
+    <mergeCell ref="BC17:BM17"/>
+    <mergeCell ref="BI18:BT18"/>
+    <mergeCell ref="BI19:BT19"/>
+    <mergeCell ref="BT20"/>
+    <mergeCell ref="BT22:CD22"/>
     <mergeCell ref="CS2:DV2"/>
     <mergeCell ref="CQ34"/>
     <mergeCell ref="A2:C2"/>
@@ -10386,22 +10402,6 @@
     <mergeCell ref="BT24:CD24"/>
     <mergeCell ref="BW25:CD25"/>
     <mergeCell ref="BW26:CD26"/>
-    <mergeCell ref="BW27:CD27"/>
-    <mergeCell ref="BC17:BM17"/>
-    <mergeCell ref="BI18:BT18"/>
-    <mergeCell ref="BI19:BT19"/>
-    <mergeCell ref="BT20"/>
-    <mergeCell ref="BT22:CD22"/>
-    <mergeCell ref="T11:AD11"/>
-    <mergeCell ref="Z12:AK12"/>
-    <mergeCell ref="AG13:AK13"/>
-    <mergeCell ref="AK14"/>
-    <mergeCell ref="AV16:BG16"/>
-    <mergeCell ref="E5:K5"/>
-    <mergeCell ref="L6:X6"/>
-    <mergeCell ref="X7"/>
-    <mergeCell ref="L9:Z9"/>
-    <mergeCell ref="T10:AD10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
